--- a/copilot-k-means-clustering-demo.xlsx
+++ b/copilot-k-means-clustering-demo.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28609"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29204"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8DC017AE-387D-4B05-BC24-B644FEBD6636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F89C4A83-C362-4CE6-9E2F-658094DEDA62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="start" sheetId="5" r:id="rId1"/>
-    <sheet name="Analysis1" sheetId="6" r:id="rId2"/>
+    <sheet name="Analysis1" sheetId="7" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +48,7 @@
       </extLst>
     </bk>
   </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="2">
+  <futureMetadata name="XLRICHVALUE" count="6">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -59,7 +59,35 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="6"/>
+          <xlrd:rvb i="5"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="9"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="12"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="15"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="19"/>
         </ext>
       </extLst>
     </bk>
@@ -69,12 +97,24 @@
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
-  <valueMetadata count="2">
+  <valueMetadata count="6">
     <bk>
       <rc t="2" v="0"/>
     </bk>
     <bk>
       <rc t="2" v="1"/>
+    </bk>
+    <bk>
+      <rc t="2" v="2"/>
+    </bk>
+    <bk>
+      <rc t="2" v="3"/>
+    </bk>
+    <bk>
+      <rc t="2" v="4"/>
+    </bk>
+    <bk>
+      <rc t="2" v="5"/>
     </bk>
   </valueMetadata>
 </metadata>
@@ -83,7 +123,7 @@
 <file path=xl/python.xml><?xml version="1.0" encoding="utf-8"?>
 <python xmlns="http://schemas.microsoft.com/office/spreadsheetml/2023/python">
   <environmentDefinition id="{882DD1B0-6546-4DFA-8A08-902A380B44EA}">
-    <initialization>
+    <initialization userModified="1">
       <code xml:space="preserve">import numpy as np
 import pandas as pd
 import matplotlib.pyplot as plt
@@ -102,24 +142,74 @@
       <code>housing_df=xl(%P2%, headers=True)</code>
     </pythonScript>
     <pythonScript>
-      <code>#K-means clustering and visualization
+      <code>#Normalize numeric columns for k-means clustering
+# Select only numeric columns for normalization
+numeric_cols = housing_df.select_dtypes(include=[np.number]).columns
+# Standardize the numeric columns
 from sklearn.preprocessing import StandardScaler
+scaler = StandardScaler()
+housing_normalized = pd.DataFrame(scaler.fit_transform(housing_df[numeric_cols]), columns=numeric_cols)
+housing_normalized.head()</code>
+    </pythonScript>
+    <pythonScript>
+      <code>#Plot silhouette scores for K=2 to K=6 for k-means clustering
 from sklearn.cluster import KMeans
-# Convert categorical variables to numerical values
-housing_df_encoded = pd.get_dummies(housing_df, drop_first=True)
-# Normalize the data
-scaler = StandardScaler()
-housing_df_scaled = scaler.fit_transform(housing_df_encoded)
-# Apply k-means clustering
-kmeans = KMeans(n_clusters=3, random_state=42)
-housing_df['Cluster'] = kmeans.fit_predict(housing_df_scaled)
-# Visualize the results
-plt.figure(figsize=(10, 6))
-sns.scatterplot(x=housing_df['lotsize'], y=housing_df['price'], hue=housing_df['Cluster'], palette='viridis')
-plt.title('K-means Clustering of Housing Data')
+from sklearn.metrics import silhouette_score
+silhouette_scores = []
+K_range = range(2, 7)
+for k in K_range:
+    kmeans = KMeans(n_clusters=k, random_state=42, n_init=10)
+    labels = kmeans.fit_predict(housing_normalized)
+    score = silhouette_score(housing_normalized, labels)
+    silhouette_scores.append(score)
+plt.rcParams['font.family'] = ['Meiryo','Batang','TH SarabunPSK','SimHei','DejaVu Sans']
+plt.figure(figsize=(7,4))
+plt.plot(list(K_range), silhouette_scores, marker='o')
+plt.xlabel('Number of Clusters (K)')
+plt.ylabel('Silhouette Score')
+plt.title('Silhouette Score for K-means Clustering')
+plt.xticks(list(K_range))
+plt.grid(True)
+plt.tight_layout()
+plt.show()</code>
+    </pythonScript>
+    <pythonScript>
+      <code>#Assign cluster labels to the original DataFrame and show the first 10 rows
+# Run K-means clustering with 3 clusters
+kmeans_3 = KMeans(n_clusters=3, random_state=42, n_init=10)
+housing_df['cluster'] = kmeans_3.fit_predict(housing_normalized)
+# Display the first 10 rows with the new cluster column
+housing_df.head(10)</code>
+    </pythonScript>
+    <pythonScript>
+      <code>#Average values by cluster
+# Calculate the average price, lot size, bedrooms, and bathrooms for each cluster
+cluster_means = housing_df.groupby('cluster')[['price', 'lotsize', 'bedrooms', 'bathrms']].mean()
+cluster_means</code>
+    </pythonScript>
+    <pythonScript>
+      <code>#Scatter plot of lot size vs price by cluster with centers
+# Scatter plot of lot size vs price colored by cluster, with cluster centers marked
+plt.rcParams['font.family'] = ['Meiryo','Batang','TH SarabunPSK','SimHei','DejaVu Sans']
+plt.figure(figsize=(8,6))
+# Plot each cluster
+for cluster in housing_df['cluster'].unique():
+    cluster_data = housing_df[housing_df['cluster'] == cluster]
+    plt.scatter(cluster_data['lotsize'], cluster_data['price'], label=f'Cluster {cluster}')
+# Calculate cluster centers in original scale
+centers = kmeans_3.cluster_centers_
+# The order of columns in housing_normalized is used for inverse transform
+centers_orig = scaler.inverse_transform(centers)
+# Get the indices for 'lotsize' and 'price'
+lotsize_idx = list(housing_normalized.columns).index('lotsize')
+price_idx = list(housing_normalized.columns).index('price')
+plt.scatter(centers_orig[:, lotsize_idx], centers_orig[:, price_idx],
+            c='black', marker='X', s=150, label='Cluster Centers')
 plt.xlabel('Lot Size')
 plt.ylabel('Price')
-plt.legend(title='Cluster')
+plt.title('Lot Size vs Price by Cluster')
+plt.legend()
+plt.tight_layout()
 plt.show()</code>
     </pythonScript>
   </pythonScripts>
@@ -127,7 +217,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3293" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3300" uniqueCount="23">
   <si>
     <t>price</t>
   </si>
@@ -174,7 +264,7 @@
     <t>Analysis Sheet</t>
   </si>
   <si>
-    <t>This sheet will include all Python code generated by Copilot.</t>
+    <t>This sheet will include all the Python formulas generated by Copilot.</t>
   </si>
   <si>
     <t>Load data from start, housing</t>
@@ -183,7 +273,19 @@
     <t>Preview</t>
   </si>
   <si>
-    <t>K-means clustering and visualization</t>
+    <t>Normalize numeric columns for k-means clustering</t>
+  </si>
+  <si>
+    <t>Plot silhouette scores for K=2 to K=6 for k-means clustering</t>
+  </si>
+  <si>
+    <t>Assign cluster labels to the original DataFrame and show the first 10 rows</t>
+  </si>
+  <si>
+    <t>Average values by cluster</t>
+  </si>
+  <si>
+    <t>Scatter plot of lot size vs price by cluster with centers</t>
   </si>
 </sst>
 </file>
@@ -194,21 +296,21 @@
     <font>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri Light"/>
+      <name val="Aptos Display"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
@@ -216,7 +318,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -224,7 +326,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -232,35 +334,35 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -268,7 +370,7 @@
       <b/>
       <sz val="18"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -276,14 +378,14 @@
       <b/>
       <sz val="18"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -291,14 +393,14 @@
       <b/>
       <sz val="18"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -306,7 +408,7 @@
       <i/>
       <sz val="18"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -314,14 +416,14 @@
       <b/>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -329,7 +431,7 @@
       <b/>
       <sz val="24"/>
       <color rgb="FF156082"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -337,7 +439,7 @@
       <b/>
       <sz val="14"/>
       <color rgb="FF156082"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -345,7 +447,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -760,21 +862,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>668183</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>421640</xdr:colOff>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" title="K-means clustering and visualization">
+        <xdr:cNvPr id="2" name="Picture 1" title="Plot silhouette scores for K=2 to K=6 for k-means clustering">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68667564-8B33-F4FF-0E48-34EF60A1400B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A683FD4-DDE0-7C55-6FF2-BB615AA6240E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -782,7 +884,7 @@
           <a:picLocks noChangeAspect="1"/>
           <a:extLst>
             <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
-              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="Analysis1!A24"/>
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="Analysis1!A36"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPicPr>
@@ -795,8 +897,62 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="7181850"/>
-          <a:ext cx="7602383" cy="4724400"/>
+          <a:off x="0" y="10739438"/>
+          <a:ext cx="8346440" cy="4724400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>2721</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>357955</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>46263</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" title="Scatter plot of lot size vs price by cluster with centers">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA8BF830-F368-5217-54C9-CAA4DA5934CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+          <a:extLst>
+            <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="Analysis1!A84"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="24692882"/>
+          <a:ext cx="6317884" cy="4724400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -854,7 +1010,7 @@
 </file>
 
 <file path=xl/richData/rdarray.xml><?xml version="1.0" encoding="utf-8"?>
-<arrayData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="2">
+<arrayData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="6">
   <a r="12" c="12">
     <v t="s"/>
     <v t="s">price</v>
@@ -1001,15 +1157,224 @@
     <v>1</v>
     <v t="s">no</v>
   </a>
+  <a r="6" c="7">
+    <v t="s"/>
+    <v t="s">price</v>
+    <v t="s">lotsize</v>
+    <v t="s">bedrooms</v>
+    <v t="s">bathrms</v>
+    <v t="s">stories</v>
+    <v t="s">garagepl</v>
+    <v>0</v>
+    <v>-0.97913616683771665</v>
+    <v>0.3230280551295564</v>
+    <v>4.7234899998835581E-2</v>
+    <v>-0.56949479745149945</v>
+    <v>0.22170408444129613</v>
+    <v>0.35756661096715792</v>
+    <v>1</v>
+    <v>-1.1103293926883928</v>
+    <v>-0.53101295594572018</v>
+    <v>-1.3101469631256022</v>
+    <v>-0.56949479745149945</v>
+    <v>-0.93115715465344395</v>
+    <v>-0.80452487467610523</v>
+    <v>2</v>
+    <v>-0.69800782572912501</v>
+    <v>-0.96495811832991485</v>
+    <v>4.7234899998835581E-2</v>
+    <v>-0.56949479745149945</v>
+    <v>-0.93115715465344395</v>
+    <v>-0.80452487467610523</v>
+    <v>3</v>
+    <v>-0.28568625876985726</v>
+    <v>0.69234308694589219</v>
+    <v>4.7234899998835581E-2</v>
+    <v>-0.56949479745149945</v>
+    <v>0.22170408444129613</v>
+    <v>-0.80452487467610523</v>
+    <v>4</v>
+    <v>-0.26694436936261778</v>
+    <v>0.5584663879124705</v>
+    <v>-1.3101469631256022</v>
+    <v>-0.56949479745149945</v>
+    <v>-0.93115715465344395</v>
+    <v>-0.80452487467610523</v>
+  </a>
   <a r="2">
-    <v>877</v>
-    <v>545</v>
+    <v>689</v>
+    <v>390</v>
+  </a>
+  <a r="11" c="12">
+    <v t="s"/>
+    <v t="s">price</v>
+    <v t="s">lotsize</v>
+    <v t="s">bedrooms</v>
+    <v t="s">bathrms</v>
+    <v t="s">stories</v>
+    <v t="s">...</v>
+    <v t="s">gashw</v>
+    <v t="s">airco</v>
+    <v t="s">garagepl</v>
+    <v t="s">prefarea</v>
+    <v t="s">cluster</v>
+    <v>0</v>
+    <v>42000</v>
+    <v>5850</v>
+    <v>3</v>
+    <v>1</v>
+    <v>2</v>
+    <v t="s">...</v>
+    <v t="s">no</v>
+    <v t="s">no</v>
+    <v>1</v>
+    <v t="s">no</v>
+    <v>1</v>
+    <v>1</v>
+    <v>38500</v>
+    <v>4000</v>
+    <v>2</v>
+    <v>1</v>
+    <v>1</v>
+    <v t="s">...</v>
+    <v t="s">no</v>
+    <v t="s">no</v>
+    <v>0</v>
+    <v t="s">no</v>
+    <v>1</v>
+    <v>2</v>
+    <v>49500</v>
+    <v>3060</v>
+    <v>3</v>
+    <v>1</v>
+    <v>1</v>
+    <v t="s">...</v>
+    <v t="s">no</v>
+    <v t="s">no</v>
+    <v>0</v>
+    <v t="s">no</v>
+    <v>1</v>
+    <v>3</v>
+    <v>60500</v>
+    <v>6650</v>
+    <v>3</v>
+    <v>1</v>
+    <v>2</v>
+    <v t="s">...</v>
+    <v t="s">no</v>
+    <v t="s">no</v>
+    <v>0</v>
+    <v t="s">no</v>
+    <v>1</v>
+    <v>4</v>
+    <v>61000</v>
+    <v>6360</v>
+    <v>2</v>
+    <v>1</v>
+    <v>1</v>
+    <v t="s">...</v>
+    <v t="s">no</v>
+    <v t="s">no</v>
+    <v>0</v>
+    <v t="s">no</v>
+    <v>1</v>
+    <v>5</v>
+    <v>66000</v>
+    <v>4160</v>
+    <v>3</v>
+    <v>1</v>
+    <v>1</v>
+    <v t="s">...</v>
+    <v t="s">no</v>
+    <v t="s">yes</v>
+    <v>0</v>
+    <v t="s">no</v>
+    <v>1</v>
+    <v>6</v>
+    <v>66000</v>
+    <v>3880</v>
+    <v>3</v>
+    <v>2</v>
+    <v>2</v>
+    <v t="s">...</v>
+    <v t="s">no</v>
+    <v t="s">no</v>
+    <v>2</v>
+    <v t="s">no</v>
+    <v>2</v>
+    <v>7</v>
+    <v>69000</v>
+    <v>4160</v>
+    <v>3</v>
+    <v>1</v>
+    <v>3</v>
+    <v t="s">...</v>
+    <v t="s">no</v>
+    <v t="s">no</v>
+    <v>0</v>
+    <v t="s">no</v>
+    <v>1</v>
+    <v>8</v>
+    <v>83800</v>
+    <v>4800</v>
+    <v>3</v>
+    <v>1</v>
+    <v>1</v>
+    <v t="s">...</v>
+    <v t="s">no</v>
+    <v t="s">no</v>
+    <v>0</v>
+    <v t="s">no</v>
+    <v>1</v>
+    <v>9</v>
+    <v>88500</v>
+    <v>5500</v>
+    <v>3</v>
+    <v>2</v>
+    <v>4</v>
+    <v t="s">...</v>
+    <v t="s">no</v>
+    <v t="s">yes</v>
+    <v>1</v>
+    <v t="s">no</v>
+    <v>2</v>
+  </a>
+  <a r="5" c="5">
+    <v t="s"/>
+    <v t="s">price</v>
+    <v t="s">lotsize</v>
+    <v t="s">bedrooms</v>
+    <v t="s">bathrms</v>
+    <v t="s">cluster</v>
+    <v t="s"/>
+    <v t="s"/>
+    <v t="s"/>
+    <v t="s"/>
+    <v>0</v>
+    <v>72178.899082568809</v>
+    <v>6918.6788990825689</v>
+    <v>2.8073394495412844</v>
+    <v>1.073394495412844</v>
+    <v>1</v>
+    <v>52773.539518900347</v>
+    <v>4037.0171821305844</v>
+    <v>2.7182130584192441</v>
+    <v>1.0584192439862543</v>
+    <v>2</v>
+    <v>95683.506849315076</v>
+    <v>6048.8835616438355</v>
+    <v>3.5753424657534247</v>
+    <v>1.8972602739726028</v>
+  </a>
+  <a r="2">
+    <v>789</v>
+    <v>590</v>
   </a>
 </arrayData>
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="7">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="20">
   <rv s="0">
     <v>0</v>
   </rv>
@@ -1028,24 +1393,100 @@
     <v>1</v>
     <v>2</v>
   </rv>
+  <rv s="0">
+    <v>1</v>
+  </rv>
+  <rv s="1">
+    <v>DataFrame</v>
+    <v>4</v>
+    <v>3</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'pandas.core.frame.DataFrame'&gt;</v>
+    <v>DataFrame</v>
+    <v xml:space="preserve">      price   lotsize  bedrooms   bathrms   stories  garagepl
+0 -0.979136  0.323028  0.047235 -0.569495  0.221704  0.357567
+1 -1.110329 -0.531013 -1.310147 -0.569495 -0.931157 -0.804525
+2 -0.698008 -0.964958  0.047235 -0.569495 -0.931157 -0.804525
+3 -0...</v>
+    <v>4</v>
+    <v>2</v>
+  </rv>
   <rv s="3">
     <v>0</v>
     <v>9</v>
   </rv>
   <rv s="0">
-    <v>1</v>
+    <v>2</v>
   </rv>
   <rv s="4">
     <v>Image</v>
-    <v>3</v>
-    <v>3</v>
-    <v>4</v>
+    <v>5</v>
+    <v>6</v>
+    <v>7</v>
   </rv>
   <rv s="2">
     <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
     <v>PngImageFile</v>
-    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=877x545 at 0x7F53466DE750&gt;</v>
+    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=689x390 at 0x7F954C421040&gt;</v>
+    <v>8</v>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <v>3</v>
+  </rv>
+  <rv s="1">
+    <v>DataFrame</v>
+    <v>7</v>
+    <v>10</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'pandas.core.frame.DataFrame'&gt;</v>
+    <v>DataFrame</v>
+    <v xml:space="preserve">   price  lotsize  bedrooms  bathrms  stories driveway recroom fullbase gashw  \
+0  42000     5850         3        1        2      yes      no      yes    no   
+1  38500     4000         2        1        1      yes      no       no    no   
+2  49500 ...</v>
+    <v>11</v>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <v>4</v>
+  </rv>
+  <rv s="1">
+    <v>DataFrame</v>
+    <v>9</v>
+    <v>13</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'pandas.core.frame.DataFrame'&gt;</v>
+    <v>DataFrame</v>
+    <v xml:space="preserve">                price      lotsize  bedrooms   bathrms
+cluster                                               
+0        72178.899083  6918.678899  2.807339  1.073394
+1        52773.539519  4037.017182  2.718213  1.058419
+2        95683.506849  6048.8835...</v>
+    <v>14</v>
+    <v>2</v>
+  </rv>
+  <rv s="3">
+    <v>1</v>
+    <v>9</v>
+  </rv>
+  <rv s="0">
     <v>5</v>
+  </rv>
+  <rv s="4">
+    <v>Image</v>
+    <v>5</v>
+    <v>16</v>
+    <v>17</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
+    <v>PngImageFile</v>
+    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=789x590 at 0x7F954C421D30&gt;</v>
+    <v>18</v>
     <v>2</v>
   </rv>
 </rvData>
@@ -1083,7 +1524,7 @@
 
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
-  <spbData count="4">
+  <spbData count="10">
     <spb s="0">
       <v>546</v>
       <v>12</v>
@@ -1099,8 +1540,38 @@
       <v>https://res.cdn.office.net/officepysvc/prod-preview/anacondalogo.png</v>
       <v>Python provided by Anaconda</v>
     </spb>
+    <spb s="0">
+      <v>5</v>
+      <v>6</v>
+      <v>DataFrame</v>
+      <v>arrayPreview</v>
+      <v>1</v>
+    </spb>
+    <spb s="1">
+      <v>3</v>
+    </spb>
     <spb s="3">
       <v>1</v>
+    </spb>
+    <spb s="0">
+      <v>10</v>
+      <v>13</v>
+      <v>DataFrame</v>
+      <v>arrayPreview</v>
+      <v>1</v>
+    </spb>
+    <spb s="1">
+      <v>6</v>
+    </spb>
+    <spb s="0">
+      <v>3</v>
+      <v>4</v>
+      <v>DataFrame</v>
+      <v>arrayPreview</v>
+      <v>1</v>
+    </spb>
+    <spb s="1">
+      <v>8</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -1145,6 +1616,7 @@
 <file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
 <richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rel r:id="rId1"/>
+  <rel r:id="rId2"/>
 </richValueRels>
 </file>
 
@@ -1170,9 +1642,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1180,39 +1652,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1264,7 +1736,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1316,7 +1788,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1375,13 +1847,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1390,6 +1855,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1454,11 +1926,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1468,8 +1960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{739F100E-6F50-45F7-B7E1-91FE25D9DD5D}">
   <dimension ref="A1:L547"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L547"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.7"/>
@@ -22275,16 +22767,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59976519-20C1-41A0-B5C9-DE2550F301B0}">
-  <dimension ref="A1:L24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{662FBABE-F288-491A-94C0-776E93BA7196}">
+  <dimension ref="A1:L84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.7"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="30.75" x14ac:dyDescent="0.9">
+    <row r="1" spans="1:12" ht="31.9" x14ac:dyDescent="1">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -22778,22 +23268,721 @@
         <v>#VALUE!</v>
       </c>
     </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="A26" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="A27" t="str" cm="1">
+        <f t="array" ref="A27:G32">IFERROR(_FV(A24,"arrayPreview"),_xlfn._DF_Python_str(A24))</f>
+        <v/>
+      </c>
+      <c r="B27" t="str">
+        <v>price</v>
+      </c>
+      <c r="C27" t="str">
+        <v>lotsize</v>
+      </c>
+      <c r="D27" t="str">
+        <v>bedrooms</v>
+      </c>
+      <c r="E27" t="str">
+        <v>bathrms</v>
+      </c>
+      <c r="F27" t="str">
+        <v>stories</v>
+      </c>
+      <c r="G27" t="str">
+        <v>garagepl</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>-0.97913616683771665</v>
+      </c>
+      <c r="C28">
+        <v>0.3230280551295564</v>
+      </c>
+      <c r="D28">
+        <v>4.7234899998835581E-2</v>
+      </c>
+      <c r="E28">
+        <v>-0.56949479745149945</v>
+      </c>
+      <c r="F28">
+        <v>0.22170408444129613</v>
+      </c>
+      <c r="G28">
+        <v>0.35756661096715792</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>-1.1103293926883928</v>
+      </c>
+      <c r="C29">
+        <v>-0.53101295594572018</v>
+      </c>
+      <c r="D29">
+        <v>-1.3101469631256022</v>
+      </c>
+      <c r="E29">
+        <v>-0.56949479745149945</v>
+      </c>
+      <c r="F29">
+        <v>-0.93115715465344395</v>
+      </c>
+      <c r="G29">
+        <v>-0.80452487467610523</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>-0.69800782572912501</v>
+      </c>
+      <c r="C30">
+        <v>-0.96495811832991485</v>
+      </c>
+      <c r="D30">
+        <v>4.7234899998835581E-2</v>
+      </c>
+      <c r="E30">
+        <v>-0.56949479745149945</v>
+      </c>
+      <c r="F30">
+        <v>-0.93115715465344395</v>
+      </c>
+      <c r="G30">
+        <v>-0.80452487467610523</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31">
+        <v>-0.28568625876985726</v>
+      </c>
+      <c r="C31">
+        <v>0.69234308694589219</v>
+      </c>
+      <c r="D31">
+        <v>4.7234899998835581E-2</v>
+      </c>
+      <c r="E31">
+        <v>-0.56949479745149945</v>
+      </c>
+      <c r="F31">
+        <v>0.22170408444129613</v>
+      </c>
+      <c r="G31">
+        <v>-0.80452487467610523</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32">
+        <v>-0.26694436936261778</v>
+      </c>
+      <c r="C32">
+        <v>0.5584663879124705</v>
+      </c>
+      <c r="D32">
+        <v>-1.3101469631256022</v>
+      </c>
+      <c r="E32">
+        <v>-0.56949479745149945</v>
+      </c>
+      <c r="F32">
+        <v>-0.93115715465344395</v>
+      </c>
+      <c r="G32">
+        <v>-0.80452487467610523</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A35" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A36" t="e" cm="1" vm="3">
+        <f t="array" ref="A36">_xlfn._xlws.PY(2,1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="A55" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="A56" t="e" cm="1" vm="4">
+        <f t="array" ref="A56">_xlfn._xlws.PY(3,1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="A58" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="A59" t="str" cm="1">
+        <f t="array" ref="A59:L69">IFERROR(_FV(A56,"arrayPreview"),_xlfn._DF_Python_str(A56))</f>
+        <v/>
+      </c>
+      <c r="B59" t="str">
+        <v>price</v>
+      </c>
+      <c r="C59" t="str">
+        <v>lotsize</v>
+      </c>
+      <c r="D59" t="str">
+        <v>bedrooms</v>
+      </c>
+      <c r="E59" t="str">
+        <v>bathrms</v>
+      </c>
+      <c r="F59" t="str">
+        <v>stories</v>
+      </c>
+      <c r="G59" t="str">
+        <v>...</v>
+      </c>
+      <c r="H59" t="str">
+        <v>gashw</v>
+      </c>
+      <c r="I59" t="str">
+        <v>airco</v>
+      </c>
+      <c r="J59" t="str">
+        <v>garagepl</v>
+      </c>
+      <c r="K59" t="str">
+        <v>prefarea</v>
+      </c>
+      <c r="L59" t="str">
+        <v>cluster</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="A60">
+        <v>0</v>
+      </c>
+      <c r="B60">
+        <v>42000</v>
+      </c>
+      <c r="C60">
+        <v>5850</v>
+      </c>
+      <c r="D60">
+        <v>3</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>2</v>
+      </c>
+      <c r="G60" t="str">
+        <v>...</v>
+      </c>
+      <c r="H60" t="str">
+        <v>no</v>
+      </c>
+      <c r="I60" t="str">
+        <v>no</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60" t="str">
+        <v>no</v>
+      </c>
+      <c r="L60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="A61">
+        <v>1</v>
+      </c>
+      <c r="B61">
+        <v>38500</v>
+      </c>
+      <c r="C61">
+        <v>4000</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61" t="str">
+        <v>...</v>
+      </c>
+      <c r="H61" t="str">
+        <v>no</v>
+      </c>
+      <c r="I61" t="str">
+        <v>no</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61" t="str">
+        <v>no</v>
+      </c>
+      <c r="L61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="A62">
+        <v>2</v>
+      </c>
+      <c r="B62">
+        <v>49500</v>
+      </c>
+      <c r="C62">
+        <v>3060</v>
+      </c>
+      <c r="D62">
+        <v>3</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62" t="str">
+        <v>...</v>
+      </c>
+      <c r="H62" t="str">
+        <v>no</v>
+      </c>
+      <c r="I62" t="str">
+        <v>no</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62" t="str">
+        <v>no</v>
+      </c>
+      <c r="L62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="A63">
+        <v>3</v>
+      </c>
+      <c r="B63">
+        <v>60500</v>
+      </c>
+      <c r="C63">
+        <v>6650</v>
+      </c>
+      <c r="D63">
+        <v>3</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>2</v>
+      </c>
+      <c r="G63" t="str">
+        <v>...</v>
+      </c>
+      <c r="H63" t="str">
+        <v>no</v>
+      </c>
+      <c r="I63" t="str">
+        <v>no</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63" t="str">
+        <v>no</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="A64">
+        <v>4</v>
+      </c>
+      <c r="B64">
+        <v>61000</v>
+      </c>
+      <c r="C64">
+        <v>6360</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64" t="str">
+        <v>...</v>
+      </c>
+      <c r="H64" t="str">
+        <v>no</v>
+      </c>
+      <c r="I64" t="str">
+        <v>no</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64" t="str">
+        <v>no</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="A65">
+        <v>5</v>
+      </c>
+      <c r="B65">
+        <v>66000</v>
+      </c>
+      <c r="C65">
+        <v>4160</v>
+      </c>
+      <c r="D65">
+        <v>3</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65" t="str">
+        <v>...</v>
+      </c>
+      <c r="H65" t="str">
+        <v>no</v>
+      </c>
+      <c r="I65" t="str">
+        <v>yes</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65" t="str">
+        <v>no</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="A66">
+        <v>6</v>
+      </c>
+      <c r="B66">
+        <v>66000</v>
+      </c>
+      <c r="C66">
+        <v>3880</v>
+      </c>
+      <c r="D66">
+        <v>3</v>
+      </c>
+      <c r="E66">
+        <v>2</v>
+      </c>
+      <c r="F66">
+        <v>2</v>
+      </c>
+      <c r="G66" t="str">
+        <v>...</v>
+      </c>
+      <c r="H66" t="str">
+        <v>no</v>
+      </c>
+      <c r="I66" t="str">
+        <v>no</v>
+      </c>
+      <c r="J66">
+        <v>2</v>
+      </c>
+      <c r="K66" t="str">
+        <v>no</v>
+      </c>
+      <c r="L66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="A67">
+        <v>7</v>
+      </c>
+      <c r="B67">
+        <v>69000</v>
+      </c>
+      <c r="C67">
+        <v>4160</v>
+      </c>
+      <c r="D67">
+        <v>3</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>3</v>
+      </c>
+      <c r="G67" t="str">
+        <v>...</v>
+      </c>
+      <c r="H67" t="str">
+        <v>no</v>
+      </c>
+      <c r="I67" t="str">
+        <v>no</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67" t="str">
+        <v>no</v>
+      </c>
+      <c r="L67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="A68">
+        <v>8</v>
+      </c>
+      <c r="B68">
+        <v>83800</v>
+      </c>
+      <c r="C68">
+        <v>4800</v>
+      </c>
+      <c r="D68">
+        <v>3</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68" t="str">
+        <v>...</v>
+      </c>
+      <c r="H68" t="str">
+        <v>no</v>
+      </c>
+      <c r="I68" t="str">
+        <v>no</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68" t="str">
+        <v>no</v>
+      </c>
+      <c r="L68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="A69">
+        <v>9</v>
+      </c>
+      <c r="B69">
+        <v>88500</v>
+      </c>
+      <c r="C69">
+        <v>5500</v>
+      </c>
+      <c r="D69">
+        <v>3</v>
+      </c>
+      <c r="E69">
+        <v>2</v>
+      </c>
+      <c r="F69">
+        <v>4</v>
+      </c>
+      <c r="G69" t="str">
+        <v>...</v>
+      </c>
+      <c r="H69" t="str">
+        <v>no</v>
+      </c>
+      <c r="I69" t="str">
+        <v>yes</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69" t="str">
+        <v>no</v>
+      </c>
+      <c r="L69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="A72" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="A73" t="e" cm="1" vm="5">
+        <f t="array" ref="A73">_xlfn._xlws.PY(4,1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="A75" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="A76" t="str" cm="1">
+        <f t="array" ref="A76:E80">IFERROR(_FV(A73,"arrayPreview"),_xlfn._DF_Python_str(A73))</f>
+        <v/>
+      </c>
+      <c r="B76" t="str">
+        <v>price</v>
+      </c>
+      <c r="C76" t="str">
+        <v>lotsize</v>
+      </c>
+      <c r="D76" t="str">
+        <v>bedrooms</v>
+      </c>
+      <c r="E76" t="str">
+        <v>bathrms</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="A77" t="str">
+        <v>cluster</v>
+      </c>
+      <c r="B77" t="str">
+        <v/>
+      </c>
+      <c r="C77" t="str">
+        <v/>
+      </c>
+      <c r="D77" t="str">
+        <v/>
+      </c>
+      <c r="E77" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="A78">
+        <v>0</v>
+      </c>
+      <c r="B78">
+        <v>72178.899082568809</v>
+      </c>
+      <c r="C78">
+        <v>6918.6788990825689</v>
+      </c>
+      <c r="D78">
+        <v>2.8073394495412844</v>
+      </c>
+      <c r="E78">
+        <v>1.073394495412844</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="A79">
+        <v>1</v>
+      </c>
+      <c r="B79">
+        <v>52773.539518900347</v>
+      </c>
+      <c r="C79">
+        <v>4037.0171821305844</v>
+      </c>
+      <c r="D79">
+        <v>2.7182130584192441</v>
+      </c>
+      <c r="E79">
+        <v>1.0584192439862543</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="A80">
+        <v>2</v>
+      </c>
+      <c r="B80">
+        <v>95683.506849315076</v>
+      </c>
+      <c r="C80">
+        <v>6048.8835616438355</v>
+      </c>
+      <c r="D80">
+        <v>3.5753424657534247</v>
+      </c>
+      <c r="E80">
+        <v>1.8972602739726028</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A83" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.7">
+      <c r="A84" t="e" cm="1" vm="6">
+        <f t="array" ref="A84">_xlfn._xlws.PY(5,1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <customProperties>
+    <customPr name="isPythonAnalysisSheet" r:id="rId2"/>
+    <customPr name="lastPythonCell" r:id="rId3"/>
+  </customProperties>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="a08ef4ae-eb2d-43fd-9aa1-597ac51ccd6f">
@@ -22804,7 +23993,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006EF09FB187B9B84793DBC132EEBE2230" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="aac6bf77fcb3d30d53f0d4b79425cbb0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a08ef4ae-eb2d-43fd-9aa1-597ac51ccd6f" xmlns:ns3="86b59944-c92b-47ac-9d30-5bf03be2cde5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="725b7bcca34814dbd54a474e410d6122" ns2:_="" ns3:_="">
     <xsd:import namespace="a08ef4ae-eb2d-43fd-9aa1-597ac51ccd6f"/>
@@ -23047,15 +24236,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F27017D5-DE7D-48CC-A8A7-62444E04E8D9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{492F3197-022D-44D5-A183-0F66A1E8B02A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -23066,7 +24256,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{544B82FC-20C2-418A-951C-FC717CE0D202}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -23083,4 +24273,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F27017D5-DE7D-48CC-A8A7-62444E04E8D9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>